--- a/Wyniki 3/S1/S1-GraphQL — jedno pole.xlsx
+++ b/Wyniki 3/S1/S1-GraphQL — jedno pole.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA83DBAA-B850-4EAE-A5E6-C717864BA182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0DD41-0450-4AE3-95A4-70E23E8E13D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
     <sheet name="100 rekordów" sheetId="2" r:id="rId2"/>
     <sheet name="500 rekordów" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -168,12 +179,6 @@
   </si>
   <si>
     <t>310,3 µs</t>
-  </si>
-  <si>
-    <t>777MB</t>
-  </si>
-  <si>
-    <t>722MB</t>
   </si>
   <si>
     <t>4,5s</t>
@@ -537,7 +542,7 @@
   <dimension ref="E7:P38"/>
   <sheetViews>
     <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +600,10 @@
       <c r="J9" s="3">
         <v>1.44</v>
       </c>
+      <c r="K9">
+        <f>AVERAGE(G9:J9)</f>
+        <v>1.4674999999999998</v>
+      </c>
       <c r="N9" s="1">
         <v>1.57</v>
       </c>
@@ -622,6 +631,10 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K38" si="0">AVERAGE(G10:J10)</f>
+        <v>0</v>
+      </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
@@ -649,6 +662,10 @@
       <c r="J11" s="3">
         <v>135.36000000000001</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>141.9</v>
+      </c>
       <c r="N11" s="1">
         <v>141.24</v>
       </c>
@@ -676,6 +693,10 @@
       <c r="J12" s="3">
         <v>2.21</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2.2475000000000005</v>
+      </c>
       <c r="N12" s="1">
         <v>2.58</v>
       </c>
@@ -703,6 +724,10 @@
       <c r="J13" s="3">
         <v>2.57</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.5874999999999999</v>
+      </c>
       <c r="N13" s="1">
         <v>3.11</v>
       </c>
@@ -730,6 +755,10 @@
       <c r="J14" s="3">
         <v>83957</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>83955</v>
+      </c>
       <c r="N14" s="1">
         <v>83944</v>
       </c>
@@ -757,6 +786,10 @@
       <c r="J15" s="3">
         <v>960.9</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>960.85</v>
+      </c>
       <c r="N15" s="1">
         <v>960.9</v>
       </c>
@@ -784,6 +817,10 @@
       <c r="J16" s="3">
         <v>87.38</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>87.38</v>
+      </c>
       <c r="N16" s="1">
         <v>87.36</v>
       </c>
@@ -811,6 +848,10 @@
       <c r="J17" s="3">
         <v>25</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="N17" s="1">
         <v>55</v>
       </c>
@@ -838,6 +879,10 @@
       <c r="J18" s="3">
         <v>23</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="N18" s="1">
         <v>48</v>
       </c>
@@ -866,6 +911,10 @@
       </c>
       <c r="J19" s="4">
         <v>1.24</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.2475000000000001</v>
       </c>
       <c r="N19" s="2">
         <v>1.21</v>
@@ -894,6 +943,10 @@
       <c r="J20" s="4">
         <v>0</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
@@ -921,6 +974,10 @@
       <c r="J21" s="4">
         <v>142.11000000000001</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>147.79250000000002</v>
+      </c>
       <c r="N21" s="2">
         <v>141.66</v>
       </c>
@@ -948,6 +1005,10 @@
       <c r="J22" s="4">
         <v>2.2799999999999998</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>2.2174999999999998</v>
+      </c>
       <c r="N22" s="2">
         <v>2.09</v>
       </c>
@@ -975,6 +1036,10 @@
       <c r="J23" s="4">
         <v>3.08</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>2.9224999999999999</v>
+      </c>
       <c r="N23" s="2">
         <v>2.77</v>
       </c>
@@ -1002,6 +1067,10 @@
       <c r="J24" s="4">
         <v>939243</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>864213.5</v>
+      </c>
       <c r="N24" s="2">
         <v>839314</v>
       </c>
@@ -1029,6 +1098,10 @@
       <c r="J25" s="4">
         <v>960.5</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>960.625</v>
+      </c>
       <c r="N25" s="2">
         <v>960.6</v>
       </c>
@@ -1056,6 +1129,10 @@
       <c r="J26" s="4">
         <v>973.78</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>898.61999999999989</v>
+      </c>
       <c r="N26" s="2">
         <v>873.74</v>
       </c>
@@ -1083,6 +1160,10 @@
       <c r="J27" s="4">
         <v>250</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
       <c r="N27" s="2">
         <v>550</v>
       </c>
@@ -1110,6 +1191,10 @@
       <c r="J28" s="4">
         <v>233</v>
       </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>232.5</v>
+      </c>
       <c r="N28" s="2">
         <v>482</v>
       </c>
@@ -1139,8 +1224,12 @@
       <c r="J29" s="3">
         <v>289.72000000000003</v>
       </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>275.8075</v>
+      </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N29" s="1">
         <v>376.54</v>
@@ -1167,6 +1256,10 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
@@ -1192,6 +1285,10 @@
       <c r="J31" s="3">
         <v>487.18</v>
       </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>569.2349999999999</v>
+      </c>
       <c r="N31" s="1">
         <v>1520</v>
       </c>
@@ -1217,6 +1314,10 @@
       <c r="J32" s="3">
         <v>365.82</v>
       </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>350.75</v>
+      </c>
       <c r="N32" s="1">
         <v>656.18</v>
       </c>
@@ -1242,6 +1343,10 @@
       <c r="J33" s="3">
         <v>375.92</v>
       </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>366.94749999999999</v>
+      </c>
       <c r="N33" s="1">
         <v>676.87</v>
       </c>
@@ -1267,6 +1372,10 @@
       <c r="J34" s="3">
         <v>2606205</v>
       </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>2634958.5</v>
+      </c>
       <c r="N34" s="1">
         <v>2441880</v>
       </c>
@@ -1292,6 +1401,10 @@
       <c r="J35" s="3">
         <v>960.8</v>
       </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>960.75</v>
+      </c>
       <c r="N35" s="1">
         <v>960.7</v>
       </c>
@@ -1317,6 +1430,10 @@
       <c r="J36" s="3">
         <v>2712.42</v>
       </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>2742.6374999999998</v>
+      </c>
       <c r="N36" s="1">
         <v>2541.8200000000002</v>
       </c>
@@ -1336,11 +1453,15 @@
       <c r="H37" s="1">
         <v>789</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>47</v>
+      <c r="I37" s="1">
+        <v>777</v>
+      </c>
+      <c r="J37" s="3">
+        <v>777</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>785.25</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>13</v>
@@ -1361,11 +1482,15 @@
       <c r="H38" s="1">
         <v>734</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>48</v>
+      <c r="I38" s="1">
+        <v>722</v>
+      </c>
+      <c r="J38" s="3">
+        <v>722</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>730</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>14</v>
@@ -1391,13 +1516,14 @@
   <dimension ref="E7:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:14" x14ac:dyDescent="0.25">
@@ -1442,6 +1568,10 @@
       <c r="I9" s="1">
         <v>1.5</v>
       </c>
+      <c r="J9">
+        <f>AVERAGE(G9:I9)</f>
+        <v>1.5133333333333334</v>
+      </c>
       <c r="M9" s="1">
         <v>2.88</v>
       </c>
@@ -1463,6 +1593,10 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J38" si="0">AVERAGE(G10:I10)</f>
+        <v>0</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1484,6 +1618,10 @@
       <c r="I11" s="1">
         <v>148.46</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>111.73666666666668</v>
+      </c>
       <c r="M11" s="1">
         <v>1530</v>
       </c>
@@ -1505,6 +1643,10 @@
       <c r="I12" s="1">
         <v>2.0699999999999998</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2.0766666666666667</v>
+      </c>
       <c r="M12" s="1">
         <v>3.73</v>
       </c>
@@ -1526,6 +1668,10 @@
       <c r="I13" s="1">
         <v>2.25</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>2.3166666666666664</v>
+      </c>
       <c r="M13" s="1">
         <v>4.17</v>
       </c>
@@ -1547,6 +1693,10 @@
       <c r="I14" s="1">
         <v>83954</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>83953.666666666672</v>
+      </c>
       <c r="M14" s="1">
         <v>83804</v>
       </c>
@@ -1568,6 +1718,10 @@
       <c r="I15" s="1">
         <v>960.8</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>960.93333333333339</v>
+      </c>
       <c r="M15" s="1">
         <v>960.3</v>
       </c>
@@ -1589,6 +1743,10 @@
       <c r="I16" s="1">
         <v>87.38</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>87.366666666666674</v>
+      </c>
       <c r="M16" s="1">
         <v>87.27</v>
       </c>
@@ -1610,6 +1768,10 @@
       <c r="I17" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M17" s="1">
         <v>3.2</v>
       </c>
@@ -1631,6 +1793,10 @@
       <c r="I18" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="J18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M18" s="1">
         <v>51</v>
       </c>
@@ -1653,6 +1819,10 @@
       </c>
       <c r="I19" s="2">
         <v>1.6</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.61</v>
       </c>
       <c r="M19" s="2">
         <v>1030</v>
@@ -1675,6 +1845,10 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1696,6 +1870,10 @@
       <c r="I21" s="2">
         <v>147.76</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>150.14666666666665</v>
+      </c>
       <c r="M21" s="2">
         <v>1370</v>
       </c>
@@ -1717,6 +1895,10 @@
       <c r="I22" s="2">
         <v>2.11</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2.1266666666666665</v>
+      </c>
       <c r="M22" s="2">
         <v>1220</v>
       </c>
@@ -1738,6 +1920,10 @@
       <c r="I23" s="2">
         <v>2.7</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>2.7900000000000005</v>
+      </c>
       <c r="M23" s="2">
         <v>1230</v>
       </c>
@@ -1759,6 +1945,10 @@
       <c r="I24" s="2">
         <v>838866</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>838852.33333333337</v>
+      </c>
       <c r="M24" s="2">
         <v>412310</v>
       </c>
@@ -1780,6 +1970,10 @@
       <c r="I25" s="2">
         <v>960.4</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>960.76666666666677</v>
+      </c>
       <c r="M25" s="2">
         <v>960.8</v>
       </c>
@@ -1801,6 +1995,10 @@
       <c r="I26" s="2">
         <v>873.49</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>873.13666666666666</v>
+      </c>
       <c r="M26" s="2">
         <v>429.13</v>
       </c>
@@ -1822,6 +2020,10 @@
       <c r="I27" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="J27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M27" s="2">
         <v>16</v>
       </c>
@@ -1843,6 +2045,10 @@
       <c r="I28" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
       <c r="M28" s="2">
         <v>252</v>
       </c>
@@ -1865,6 +2071,10 @@
       </c>
       <c r="I29" s="1">
         <v>2230</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>2223.3333333333335</v>
       </c>
       <c r="M29" s="1">
         <v>7210</v>
@@ -1887,6 +2097,10 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1908,6 +2122,10 @@
       <c r="I31" s="1">
         <v>2810</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>3143.3333333333335</v>
+      </c>
       <c r="M31" s="1">
         <v>12220</v>
       </c>
@@ -1929,6 +2147,10 @@
       <c r="I32" s="1">
         <v>2540</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>2556.6666666666665</v>
+      </c>
       <c r="M32" s="1">
         <v>8460</v>
       </c>
@@ -1950,6 +2172,10 @@
       <c r="I33" s="1">
         <v>2550</v>
       </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>2570</v>
+      </c>
       <c r="M33" s="1">
         <v>8790</v>
       </c>
@@ -1971,6 +2197,10 @@
       <c r="I34" s="1">
         <v>1039284</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1042170.3333333334</v>
+      </c>
       <c r="M34" s="1">
         <v>410237</v>
       </c>
@@ -1992,6 +2222,10 @@
       <c r="I35" s="1">
         <v>960.7</v>
       </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>960.70000000000016</v>
+      </c>
       <c r="M35" s="1">
         <v>960.5</v>
       </c>
@@ -2013,6 +2247,10 @@
       <c r="I36" s="1">
         <v>1081.81</v>
       </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1084.8366666666666</v>
+      </c>
       <c r="M36" s="1">
         <v>427.12</v>
       </c>
@@ -2034,6 +2272,10 @@
       <c r="I37" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="J37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M37" s="1">
         <v>16</v>
       </c>
@@ -2054,6 +2296,10 @@
       </c>
       <c r="I38" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M38" s="1">
         <v>250</v>
@@ -2078,7 +2324,7 @@
   <dimension ref="E7:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2333,7 @@
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
@@ -2096,7 +2342,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
         <v>100</v>
       </c>
@@ -2129,8 +2375,12 @@
       <c r="I9" s="1">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>AVERAGE(G9:I9)</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -2144,8 +2394,12 @@
       <c r="I10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="e">
+        <f t="shared" ref="J10:J38" si="0">AVERAGE(G10:I10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -2159,8 +2413,12 @@
       <c r="I11" s="1">
         <v>1580</v>
       </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>630.06333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -2174,8 +2432,12 @@
       <c r="I12" s="1">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>4.7633333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -2189,8 +2451,12 @@
       <c r="I13" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>5.3266666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -2204,8 +2470,12 @@
       <c r="I14" s="1">
         <v>83757</v>
       </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>83759.333333333328</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2219,8 +2489,12 @@
       <c r="I15" s="1">
         <v>960</v>
       </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>960.0333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -2233,6 +2507,10 @@
       </c>
       <c r="I16" s="1">
         <v>87.25</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>87.24666666666667</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
@@ -2249,6 +2527,10 @@
       <c r="I17" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="J17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="5"/>
@@ -2264,6 +2546,10 @@
       <c r="I18" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="J18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
@@ -2280,6 +2566,10 @@
       </c>
       <c r="I19" s="2">
         <v>1980</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1986.6666666666667</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
@@ -2296,6 +2586,10 @@
       <c r="I20" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
@@ -2311,6 +2605,10 @@
       <c r="I21" s="2">
         <v>2570</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2573.3333333333335</v>
+      </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
@@ -2326,6 +2624,10 @@
       <c r="I22" s="2">
         <v>2300</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2303.3333333333335</v>
+      </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="6"/>
@@ -2341,6 +2643,10 @@
       <c r="I23" s="2">
         <v>2310</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>2316.6666666666665</v>
+      </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
@@ -2356,6 +2662,10 @@
       <c r="I24" s="2">
         <v>281428</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>280775</v>
+      </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
@@ -2371,6 +2681,10 @@
       <c r="I25" s="2">
         <v>960.6</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>960.66666666666663</v>
+      </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="6"/>
@@ -2386,6 +2700,10 @@
       <c r="I26" s="2">
         <v>292.97000000000003</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>292.27333333333337</v>
+      </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
@@ -2401,6 +2719,10 @@
       <c r="I27" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="J27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="6"/>
@@ -2416,6 +2738,10 @@
       <c r="I28" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="J28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="5">
@@ -2433,8 +2759,12 @@
       <c r="I29" s="1">
         <v>10860</v>
       </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>10866.666666666666</v>
+      </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
@@ -2451,6 +2781,10 @@
       <c r="I30" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="5"/>
@@ -2466,6 +2800,10 @@
       <c r="I31" s="1">
         <v>12740</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>13140</v>
+      </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
@@ -2481,8 +2819,12 @@
       <c r="I32" s="1">
         <v>12420</v>
       </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>12443.333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2496,8 +2838,12 @@
       <c r="I33" s="1">
         <v>12450</v>
       </c>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>12683.333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -2511,8 +2857,12 @@
       <c r="I34" s="1">
         <v>284371</v>
       </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>284216.66666666669</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -2526,8 +2876,12 @@
       <c r="I35" s="1">
         <v>960.9</v>
       </c>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>960.80000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -2541,8 +2895,12 @@
       <c r="I36" s="1">
         <v>295.95</v>
       </c>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>295.82</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="1" t="s">
         <v>17</v>
@@ -2556,8 +2914,12 @@
       <c r="I37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="5"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -2570,6 +2932,10 @@
       </c>
       <c r="I38" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki 3/S1/S1-GraphQL — jedno pole.xlsx
+++ b/Wyniki 3/S1/S1-GraphQL — jedno pole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0DD41-0450-4AE3-95A4-70E23E8E13D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479A87D-DCE6-4B67-A5F1-23899C2C9EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -2323,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
   <dimension ref="E7:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wyniki 3/S1/S1-GraphQL — jedno pole.xlsx
+++ b/Wyniki 3/S1/S1-GraphQL — jedno pole.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479A87D-DCE6-4B67-A5F1-23899C2C9EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC339A71-179D-4CC6-A2E1-40EAC0A71144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2324,7 +2324,7 @@
   <dimension ref="E7:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
